--- a/Code/Overlap/Sol Check 2.xlsx
+++ b/Code/Overlap/Sol Check 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Overlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA0971-C95D-4309-8393-A28B7085CBC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99445C-5E6E-4F2C-9A9D-FF9FC8504867}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B301433D-9DCC-4BFC-86CA-DD685E12B0B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B301433D-9DCC-4BFC-86CA-DD685E12B0B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Vessels" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Vessels</t>
   </si>
@@ -197,6 +197,48 @@
   </si>
   <si>
     <t>Up %</t>
+  </si>
+  <si>
+    <t>Energy Avail</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Prod losses</t>
+  </si>
+  <si>
+    <t>"Total" energy</t>
+  </si>
+  <si>
+    <t>Strath</t>
+  </si>
+  <si>
+    <t>NOWI</t>
+  </si>
+  <si>
+    <t>UiS Sim</t>
+  </si>
+  <si>
+    <t>ECUME</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Time Avail</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Total Costs 1</t>
+  </si>
+  <si>
+    <t>Total Costs 2</t>
+  </si>
+  <si>
+    <t>My (720 days, 720 max work, 142 ppMWh)</t>
   </si>
 </sst>
 </file>
@@ -23016,8 +23058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6454C125-6E03-4F36-99C8-C5F99DD47F1F}">
   <dimension ref="A1:AM619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34:AC39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25896,7 +25938,7 @@
         <v>0.40656249999999999</v>
       </c>
       <c r="AB34" s="3">
-        <f t="shared" ref="AB34:AB40" si="17">SUM(W34:AA34)</f>
+        <f t="shared" ref="AB34:AB39" si="17">SUM(W34:AA34)</f>
         <v>0.71872395833333336</v>
       </c>
       <c r="AC34" s="3">
@@ -61396,18 +61438,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9D08A3-6FCF-4074-9B9B-D626A1B91044}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>41</v>
       </c>
@@ -61417,8 +61460,29 @@
       <c r="F1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -61426,8 +61490,30 @@
         <f>Failures!AC39</f>
         <v>24.328124999999989</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2">
+        <v>83.7</v>
+      </c>
+      <c r="N2">
+        <v>83.74</v>
+      </c>
+      <c r="O2">
+        <v>84.4</v>
+      </c>
+      <c r="P2">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="Q2">
+        <v>83.16</v>
+      </c>
+      <c r="R2">
+        <f>R3</f>
+        <v>93.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -61435,8 +61521,29 @@
         <f>B2</f>
         <v>24.328124999999989</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3">
+        <v>82.11</v>
+      </c>
+      <c r="N3">
+        <v>82.86</v>
+      </c>
+      <c r="O3">
+        <v>84</v>
+      </c>
+      <c r="P3">
+        <v>81.7</v>
+      </c>
+      <c r="Q3">
+        <v>82.67</v>
+      </c>
+      <c r="R3">
+        <v>93.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -61448,8 +61555,29 @@
         <f>B4/1000000</f>
         <v>7.2016140000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>17.28</v>
+      </c>
+      <c r="N4">
+        <v>16.63</v>
+      </c>
+      <c r="O4">
+        <v>15.48</v>
+      </c>
+      <c r="P4">
+        <v>18.64</v>
+      </c>
+      <c r="Q4">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="R4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -61461,8 +61589,47 @@
         <f t="shared" ref="C5:C8" si="0">B5/1000000</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5">
+        <f>100*M4/(100-M3)</f>
+        <v>96.590273896031306</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:U5" si="1">100*N4/(100-N3)</f>
+        <v>97.024504084013998</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>96.75</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>101.85792349726778</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>98.153491055972324</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>98.187311178247668</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -61474,8 +61641,29 @@
         <f t="shared" si="0"/>
         <v>5.6902499999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>17.84</v>
+      </c>
+      <c r="N6">
+        <v>19.18</v>
+      </c>
+      <c r="O6">
+        <v>12.24</v>
+      </c>
+      <c r="P6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q6">
+        <v>14.64</v>
+      </c>
+      <c r="R6">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -61486,8 +61674,30 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7">
+        <v>22.44</v>
+      </c>
+      <c r="N7">
+        <v>25.17</v>
+      </c>
+      <c r="O7">
+        <v>17.93</v>
+      </c>
+      <c r="P7">
+        <v>14.48</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <f>R6</f>
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -61497,6 +61707,70 @@
       <c r="C8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8">
+        <f>M4+M6</f>
+        <v>35.120000000000005</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:S8" si="2">N4+N6</f>
+        <v>35.81</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>27.72</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>27.94</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>31.650000000000002</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>12.18</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9">
+        <f>M4+M7</f>
+        <v>39.72</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:S9" si="3">N4+N7</f>
+        <v>41.8</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>33.409999999999997</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>33.120000000000005</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>37.010000000000005</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>12.18</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Overlap/Sol Check 2.xlsx
+++ b/Code/Overlap/Sol Check 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Overlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99445C-5E6E-4F2C-9A9D-FF9FC8504867}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841F0179-CADB-4D77-B3F4-6F60F86745A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B301433D-9DCC-4BFC-86CA-DD685E12B0B6}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Vessels</t>
   </si>
@@ -240,12 +240,18 @@
   <si>
     <t>My (720 days, 720 max work, 142 ppMWh)</t>
   </si>
+  <si>
+    <t>My (720 days, 720 max work, seasonal wind 142 avg)</t>
+  </si>
+  <si>
+    <t>My (720 days, 720 max work, extreme seasonal wind 142 avg)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +263,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61441,7 +61453,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="A18" sqref="A18:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61481,6 +61493,12 @@
       <c r="R1" t="s">
         <v>59</v>
       </c>
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -61512,6 +61530,12 @@
         <f>R3</f>
         <v>93.38</v>
       </c>
+      <c r="S2">
+        <v>93.42</v>
+      </c>
+      <c r="T2">
+        <v>93.02</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -61542,6 +61566,12 @@
       <c r="R3">
         <v>93.38</v>
       </c>
+      <c r="S3">
+        <v>93.43</v>
+      </c>
+      <c r="T3">
+        <v>93.8</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -61576,6 +61606,12 @@
       <c r="R4">
         <v>6.5</v>
       </c>
+      <c r="S4">
+        <v>6.44</v>
+      </c>
+      <c r="T4">
+        <v>6.08</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -61618,11 +61654,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98.021308980213192</v>
       </c>
       <c r="T5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98.064516129032214</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
@@ -61662,6 +61698,12 @@
       <c r="R6">
         <v>5.68</v>
       </c>
+      <c r="S6">
+        <v>5.68</v>
+      </c>
+      <c r="T6">
+        <v>5.61</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -61696,6 +61738,14 @@
         <f>R6</f>
         <v>5.68</v>
       </c>
+      <c r="S7">
+        <f>S6</f>
+        <v>5.68</v>
+      </c>
+      <c r="T7">
+        <f>T6</f>
+        <v>5.61</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -61737,7 +61787,11 @@
       </c>
       <c r="S8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.120000000000001</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8" si="3">T4+T6</f>
+        <v>11.690000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -61749,31 +61803,36 @@
         <v>39.72</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:S9" si="3">N4+N7</f>
+        <f t="shared" ref="N9:S9" si="4">N4+N7</f>
         <v>41.8</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.409999999999997</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.120000000000005</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.010000000000005</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.18</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>12.120000000000001</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9" si="5">T4+T7</f>
+        <v>11.690000000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Code/Overlap/Sol Check 2.xlsx
+++ b/Code/Overlap/Sol Check 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Overlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B1161D-A4CB-4611-ADCA-F07BC81BAE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B657B5AD-D992-4DFB-A6BD-1F3944B406E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B301433D-9DCC-4BFC-86CA-DD685E12B0B6}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>Vessels</t>
   </si>
@@ -187,9 +187,6 @@
     <t>millions</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
@@ -232,12 +229,6 @@
     <t>Direct</t>
   </si>
   <si>
-    <t>Total Costs 1</t>
-  </si>
-  <si>
-    <t>Total Costs 2</t>
-  </si>
-  <si>
     <t>My (720 days, 720 max work, 142 ppMWh)</t>
   </si>
   <si>
@@ -252,12 +243,24 @@
   <si>
     <t>Downtime</t>
   </si>
+  <si>
+    <t>My (720 days, 720 max work, seasonal wind 142 avg, techs)</t>
+  </si>
+  <si>
+    <t>Technicians</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>My Install 5% (720 days, 720 max work, seasonal wind 142 avg, techs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +289,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +307,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -309,19 +324,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4520,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AS1" s="1">
         <v>60</v>
@@ -23270,7 +23288,7 @@
         <v>4</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W2" s="3">
         <v>12</v>
@@ -24418,7 +24436,7 @@
         <v>4</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AK16" s="3"/>
@@ -25200,7 +25218,7 @@
         <v>20</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC25" s="3"/>
       <c r="AK25" s="3"/>
@@ -25981,7 +25999,7 @@
       </c>
       <c r="U34" s="3"/>
       <c r="V34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -25999,10 +26017,10 @@
         <v>4</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
@@ -26077,7 +26095,7 @@
         <v>1.2901475694444444E-2</v>
       </c>
       <c r="X35">
-        <f t="shared" ref="X35:AA35" si="16">(C1*X$14+J1*$W$13)/($W$1*$W$2*$W$3*$W$13)</f>
+        <f t="shared" ref="X35:Z35" si="16">(C1*X$14+J1*$W$13)/($W$1*$W$2*$W$3*$W$13)</f>
         <v>7.045717592592593E-3</v>
       </c>
       <c r="Y35">
@@ -61550,10 +61568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9D08A3-6FCF-4074-9B9B-D626A1B91044}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61561,10 +61579,11 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="4"/>
+    <col min="17" max="17" width="9.140625" style="5"/>
+    <col min="21" max="21" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>41</v>
       </c>
@@ -61575,43 +61594,48 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
       <c r="R1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
       </c>
       <c r="T1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <f>Failures!AD40</f>
-        <v>92.982557870370371</v>
+        <v>93.43</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2">
         <v>83.7</v>
@@ -61625,30 +61649,38 @@
       <c r="P2">
         <v>80.819999999999993</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="5">
         <v>83.16</v>
       </c>
       <c r="R2">
         <f>R3</f>
         <v>93.38</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2">
         <v>93.45</v>
       </c>
       <c r="T2">
         <v>93.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U2" s="4">
+        <v>93.43</v>
+      </c>
+      <c r="V2">
+        <v>93.29</v>
+      </c>
+      <c r="X2">
+        <v>0.53149999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <f>B2</f>
-        <v>92.982557870370371</v>
+        <v>93.47</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3">
         <v>82.11</v>
@@ -61662,33 +61694,41 @@
       <c r="P3">
         <v>81.7</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="5">
         <v>82.67</v>
       </c>
       <c r="R3">
         <v>93.38</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3">
         <v>93.57</v>
       </c>
       <c r="T3">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U3" s="4">
+        <v>93.47</v>
+      </c>
+      <c r="V3">
+        <v>93.33</v>
+      </c>
+      <c r="X3">
+        <v>3.2120000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <f>(5.76384*10^6+2.62629*10^7+3.99894*10^7)/F1</f>
-        <v>7201614</v>
+        <v>6411750</v>
       </c>
       <c r="C4">
         <f>B4/1000000</f>
-        <v>7.2016140000000002</v>
+        <v>6.4117499999999996</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4">
         <v>17.28</v>
@@ -61702,40 +61742,53 @@
       <c r="P4">
         <v>18.64</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="5">
         <v>17.010000000000002</v>
       </c>
       <c r="R4">
         <v>6.5</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4">
         <v>6.44</v>
       </c>
       <c r="T4">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U4" s="4">
+        <v>6.41</v>
+      </c>
+      <c r="V4">
+        <v>6.55</v>
+      </c>
+      <c r="W4">
+        <f>X2+X3+X4</f>
+        <v>7.7309999999999999</v>
+      </c>
+      <c r="X4">
+        <v>3.9874999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="e">
+      <c r="B5">
         <f>B6+B7+B8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" t="e">
+        <v>5993107</v>
+      </c>
+      <c r="C5">
         <f t="shared" ref="C5:C8" si="0">B5/1000000</f>
-        <v>#VALUE!</v>
+        <v>5.9931070000000002</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5">
         <f>100*M4/(100-M3)</f>
         <v>96.590273896031306</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:U5" si="1">100*N4/(100-N3)</f>
+        <f t="shared" ref="N5:V5" si="1">100*N4/(100-N3)</f>
         <v>97.024504084013998</v>
       </c>
       <c r="O5">
@@ -61746,7 +61799,7 @@
         <f t="shared" si="1"/>
         <v>101.85792349726778</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <f t="shared" si="1"/>
         <v>98.153491055972324</v>
       </c>
@@ -61754,7 +61807,7 @@
         <f t="shared" si="1"/>
         <v>98.187311178247668</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <f t="shared" si="1"/>
         <v>100.15552099533426</v>
       </c>
@@ -61762,22 +61815,25 @@
         <f t="shared" si="1"/>
         <v>98.064516129032214</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>98.162327718223565</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>98.200899550224861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <f>5.69025*10^7/F1</f>
-        <v>5690250</v>
+        <v>5523750</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>5.6902499999999998</v>
+        <v>5.5237499999999997</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
@@ -61794,143 +61850,224 @@
       <c r="P6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="5">
         <v>14.64</v>
       </c>
       <c r="R6">
         <v>5.68</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6">
         <v>5.69</v>
       </c>
       <c r="T6">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U6" s="4">
+        <v>5.52</v>
+      </c>
+      <c r="V6">
+        <v>4.42</v>
+      </c>
+      <c r="W6">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="e">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M7">
-        <v>22.44</v>
+        <v>1.6</v>
       </c>
       <c r="N7">
-        <v>25.17</v>
+        <v>1.6</v>
       </c>
       <c r="O7">
-        <v>17.93</v>
+        <v>1.6</v>
       </c>
       <c r="P7">
-        <v>14.48</v>
-      </c>
-      <c r="Q7">
-        <v>20</v>
+        <v>1.6</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1.6</v>
       </c>
       <c r="R7">
-        <f>R6</f>
-        <v>5.68</v>
-      </c>
-      <c r="S7" s="4">
-        <f>S6</f>
-        <v>5.69</v>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
       </c>
       <c r="T7">
-        <f>T6</f>
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="V7">
+        <v>0.49</v>
+      </c>
+      <c r="W7">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="e">
+      <c r="B8">
+        <v>469357</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.46935700000000002</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <f>M4+M6</f>
-        <v>35.120000000000005</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:S8" si="2">N4+N6</f>
-        <v>35.81</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="O8">
+        <v>4.08</v>
+      </c>
+      <c r="P8">
+        <v>3.58</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9">
+        <f>M6+M7+M8</f>
+        <v>22.44</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:V9" si="2">N6+N7+N8</f>
+        <v>25.17</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="2"/>
-        <v>27.72</v>
-      </c>
-      <c r="P8">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>27.94</v>
-      </c>
-      <c r="Q8">
+        <v>14.48</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
-        <v>31.650000000000002</v>
-      </c>
-      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="2"/>
+        <v>5.68</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>5.69</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>5.61</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="2"/>
+        <v>5.9889999999999999</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>8.9899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11">
+        <f>M9+M4</f>
+        <v>39.72</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:V11" si="3">N9+N4</f>
+        <v>41.8</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>33.400000000000006</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>33.120000000000005</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="3"/>
+        <v>37.010000000000005</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
         <v>12.18</v>
       </c>
-      <c r="S8" s="4">
-        <f t="shared" si="2"/>
+      <c r="S11">
+        <f t="shared" si="3"/>
         <v>12.13</v>
       </c>
-      <c r="T8">
-        <f t="shared" ref="T8" si="3">T4+T6</f>
+      <c r="T11">
+        <f t="shared" si="3"/>
         <v>11.690000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9">
-        <f>M4+M7</f>
-        <v>39.72</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ref="N9:S9" si="4">N4+N7</f>
-        <v>41.8</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
-        <v>33.409999999999997</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
-        <v>33.120000000000005</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>37.010000000000005</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="4"/>
-        <v>12.18</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="4"/>
-        <v>12.13</v>
-      </c>
-      <c r="T9">
-        <f t="shared" ref="T9" si="5">T4+T7</f>
-        <v>11.690000000000001</v>
+      <c r="U11" s="4">
+        <f t="shared" si="3"/>
+        <v>12.399000000000001</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>11.46</v>
+      </c>
+      <c r="W11">
+        <f>W4+W6+W7+W10</f>
+        <v>12.7309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <f>W11-V11</f>
+        <v>1.2708999999999993</v>
       </c>
     </row>
   </sheetData>
